--- a/documentation/datamart_build/stage_to_warehouse.xlsx
+++ b/documentation/datamart_build/stage_to_warehouse.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B\Desktop\nfl_capstone\documentation\datamart_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D0DA76-2943-4460-A5D5-895A3F6D210D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39958535-5310-4C5D-BC44-78326E1CCD00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="madden" sheetId="2" r:id="rId2"/>
+    <sheet name="conbine_stats" sheetId="3" r:id="rId3"/>
+    <sheet name="college_stats" sheetId="4" r:id="rId4"/>
+    <sheet name="draft_stats" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
   <si>
     <t>Output</t>
   </si>
@@ -53,13 +56,367 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>pick</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>height_inches</t>
+  </si>
+  <si>
+    <t>forty</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>bench</t>
+  </si>
+  <si>
+    <t>broad</t>
+  </si>
+  <si>
+    <t>threecone</t>
+  </si>
+  <si>
+    <t>shuttle</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Fill NA with -1</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>fk</t>
+  </si>
+  <si>
+    <t>Map to dimensions.teams in future</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>nfl team that drafted</t>
+  </si>
+  <si>
+    <t>drafting_team</t>
+  </si>
+  <si>
+    <t>draft_year</t>
+  </si>
+  <si>
+    <t>position_group</t>
+  </si>
+  <si>
+    <t>mapped to position groups</t>
+  </si>
+  <si>
+    <t>defense.ast.tackles</t>
+  </si>
+  <si>
+    <t>defense.fum.forced</t>
+  </si>
+  <si>
+    <t>defense.fum.rec</t>
+  </si>
+  <si>
+    <t>defense.fum.tds</t>
+  </si>
+  <si>
+    <t>defense.fum.yds</t>
+  </si>
+  <si>
+    <t>defense.games</t>
+  </si>
+  <si>
+    <t>defense.int</t>
+  </si>
+  <si>
+    <t>defense.int.td</t>
+  </si>
+  <si>
+    <t>defense.int.yards</t>
+  </si>
+  <si>
+    <t>defense.loss.tackles</t>
+  </si>
+  <si>
+    <t>defense.pd</t>
+  </si>
+  <si>
+    <t>defense.sacks</t>
+  </si>
+  <si>
+    <t>defense.seasons</t>
+  </si>
+  <si>
+    <t>defense.solo.tackes</t>
+  </si>
+  <si>
+    <t>defense.tackles</t>
+  </si>
+  <si>
+    <t>passing.attempts</t>
+  </si>
+  <si>
+    <t>passing.comp.pct</t>
+  </si>
+  <si>
+    <t>passing.completions</t>
+  </si>
+  <si>
+    <t>passing.games</t>
+  </si>
+  <si>
+    <t>passing.pass.ints</t>
+  </si>
+  <si>
+    <t>passing.pass.tds</t>
+  </si>
+  <si>
+    <t>passing.pass.yards</t>
+  </si>
+  <si>
+    <t>passing.seasons</t>
+  </si>
+  <si>
+    <t>rushing.games</t>
+  </si>
+  <si>
+    <t>rushing.rec.td</t>
+  </si>
+  <si>
+    <t>rushing.rec.yards</t>
+  </si>
+  <si>
+    <t>rushing.receptions</t>
+  </si>
+  <si>
+    <t>rushing.rush.att</t>
+  </si>
+  <si>
+    <t>rushing.rush.td</t>
+  </si>
+  <si>
+    <t>rushing.rush.yds</t>
+  </si>
+  <si>
+    <t>rushing.scrim.plays</t>
+  </si>
+  <si>
+    <t>rushing.scrim.tds</t>
+  </si>
+  <si>
+    <t>rushing.scrim.yds</t>
+  </si>
+  <si>
+    <t>rushing.seasons</t>
+  </si>
+  <si>
+    <t>receiving.games</t>
+  </si>
+  <si>
+    <t>receiving.rec.td</t>
+  </si>
+  <si>
+    <t>receiving.rec.yards</t>
+  </si>
+  <si>
+    <t>receiving.receptions</t>
+  </si>
+  <si>
+    <t>receiving.rush.att</t>
+  </si>
+  <si>
+    <t>receiving.rush.td</t>
+  </si>
+  <si>
+    <t>receiving.rush.yds</t>
+  </si>
+  <si>
+    <t>receiving.scrim.plays</t>
+  </si>
+  <si>
+    <t>receiving.scrim.tds</t>
+  </si>
+  <si>
+    <t>receiving.scrim.yds</t>
+  </si>
+  <si>
+    <t>receiving.seasons</t>
+  </si>
+  <si>
+    <t>defense_ast_tackles</t>
+  </si>
+  <si>
+    <t>defense_fum_forced</t>
+  </si>
+  <si>
+    <t>defense_fum_rec</t>
+  </si>
+  <si>
+    <t>defense_fum_tds</t>
+  </si>
+  <si>
+    <t>defense_fum_yds</t>
+  </si>
+  <si>
+    <t>defense_games</t>
+  </si>
+  <si>
+    <t>defense_int</t>
+  </si>
+  <si>
+    <t>defense_int_td</t>
+  </si>
+  <si>
+    <t>defense_int_yards</t>
+  </si>
+  <si>
+    <t>defense_loss_tackles</t>
+  </si>
+  <si>
+    <t>defense_pd</t>
+  </si>
+  <si>
+    <t>defense_sacks</t>
+  </si>
+  <si>
+    <t>defense_seasons</t>
+  </si>
+  <si>
+    <t>defense_solo_tackes</t>
+  </si>
+  <si>
+    <t>defense_tackles</t>
+  </si>
+  <si>
+    <t>passing_attempts</t>
+  </si>
+  <si>
+    <t>passing_comp_pct</t>
+  </si>
+  <si>
+    <t>passing_completions</t>
+  </si>
+  <si>
+    <t>passing_games</t>
+  </si>
+  <si>
+    <t>passing_pass_ints</t>
+  </si>
+  <si>
+    <t>passing_pass_tds</t>
+  </si>
+  <si>
+    <t>passing_pass_yards</t>
+  </si>
+  <si>
+    <t>passing_seasons</t>
+  </si>
+  <si>
+    <t>rushing_games</t>
+  </si>
+  <si>
+    <t>rushing_rec_td</t>
+  </si>
+  <si>
+    <t>rushing_rec_yards</t>
+  </si>
+  <si>
+    <t>rushing_receptions</t>
+  </si>
+  <si>
+    <t>rushing_rush_att</t>
+  </si>
+  <si>
+    <t>rushing_rush_td</t>
+  </si>
+  <si>
+    <t>rushing_rush_yds</t>
+  </si>
+  <si>
+    <t>rushing_scrim_plays</t>
+  </si>
+  <si>
+    <t>rushing_scrim_tds</t>
+  </si>
+  <si>
+    <t>rushing_scrim_yds</t>
+  </si>
+  <si>
+    <t>rushing_seasons</t>
+  </si>
+  <si>
+    <t>receiving_games</t>
+  </si>
+  <si>
+    <t>receiving_rec_td</t>
+  </si>
+  <si>
+    <t>receiving_rec_yards</t>
+  </si>
+  <si>
+    <t>receiving_receptions</t>
+  </si>
+  <si>
+    <t>receiving_rush_att</t>
+  </si>
+  <si>
+    <t>receiving_rush_td</t>
+  </si>
+  <si>
+    <t>receiving_rush_yds</t>
+  </si>
+  <si>
+    <t>receiving_scrim_plays</t>
+  </si>
+  <si>
+    <t>receiving_scrim_tds</t>
+  </si>
+  <si>
+    <t>receiving_scrim_yds</t>
+  </si>
+  <si>
+    <t>receiving_seasons</t>
+  </si>
+  <si>
+    <t>full_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +432,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,16 +454,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CF4F0AF6-53AE-4000-A77B-24AE58FF8036}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -393,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C01E9F-FA62-435D-8A2B-1EF48B03AF5E}">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B3:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,4 +821,1008 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9B43B9-97E8-47EF-87F3-053A64B6D74C}">
+  <dimension ref="B2:H41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F06EFB6-2247-47E4-B13B-EA152F4082C2}">
+  <dimension ref="B2:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B69C10D-223E-4151-AC7E-33F2F70C9F20}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/datamart_build/stage_to_warehouse.xlsx
+++ b/documentation/datamart_build/stage_to_warehouse.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B\Desktop\nfl_capstone\documentation\datamart_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39958535-5310-4C5D-BC44-78326E1CCD00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59195C4C-EB5A-4E6D-A21D-137C2F4B0B28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="3135" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="madden" sheetId="2" r:id="rId2"/>
-    <sheet name="conbine_stats" sheetId="3" r:id="rId3"/>
+    <sheet name="combine_stats" sheetId="3" r:id="rId3"/>
     <sheet name="college_stats" sheetId="4" r:id="rId4"/>
     <sheet name="draft_stats" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
   <si>
     <t>Output</t>
   </si>
@@ -79,12 +79,6 @@
     <t>college</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>height_inches</t>
-  </si>
-  <si>
     <t>forty</t>
   </si>
   <si>
@@ -410,6 +404,9 @@
   </si>
   <si>
     <t>full_name</t>
+  </si>
+  <si>
+    <t>generated</t>
   </si>
 </sst>
 </file>
@@ -474,10 +471,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,180 +823,236 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9B43B9-97E8-47EF-87F3-053A64B6D74C}">
-  <dimension ref="B2:H41"/>
+  <dimension ref="B2:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1035,14 +1089,14 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -1056,7 +1110,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1070,7 +1124,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -1084,18 +1138,18 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1112,15 +1166,15 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1129,10 +1183,10 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1141,10 +1195,10 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1153,10 +1207,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1165,10 +1219,10 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1177,10 +1231,10 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1189,10 +1243,10 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1201,10 +1255,10 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1213,10 +1267,10 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1225,10 +1279,10 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1237,10 +1291,10 @@
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1249,10 +1303,10 @@
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1261,10 +1315,10 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1273,10 +1327,10 @@
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1285,10 +1339,10 @@
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1297,10 +1351,10 @@
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1309,10 +1363,10 @@
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1321,10 +1375,10 @@
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1333,10 +1387,10 @@
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1345,10 +1399,10 @@
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1357,10 +1411,10 @@
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1369,10 +1423,10 @@
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1381,10 +1435,10 @@
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1393,10 +1447,10 @@
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1405,10 +1459,10 @@
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1417,10 +1471,10 @@
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1429,10 +1483,10 @@
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1441,10 +1495,10 @@
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1453,10 +1507,10 @@
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1465,10 +1519,10 @@
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1477,10 +1531,10 @@
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1489,10 +1543,10 @@
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1501,10 +1555,10 @@
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1513,10 +1567,10 @@
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1525,10 +1579,10 @@
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1537,10 +1591,10 @@
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1549,10 +1603,10 @@
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1561,10 +1615,10 @@
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1573,10 +1627,10 @@
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1585,10 +1639,10 @@
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1597,10 +1651,10 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -1609,10 +1663,10 @@
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1621,10 +1675,10 @@
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -1633,10 +1687,10 @@
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -1645,10 +1699,10 @@
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -1690,14 +1744,14 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -1707,7 +1761,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1717,13 +1771,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1733,7 +1787,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1745,7 +1799,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1763,7 +1817,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -1777,7 +1831,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -1791,18 +1845,18 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1819,7 +1873,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/datamart_build/stage_to_warehouse.xlsx
+++ b/documentation/datamart_build/stage_to_warehouse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B\Desktop\nfl_capstone\documentation\datamart_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59195C4C-EB5A-4E6D-A21D-137C2F4B0B28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89375646-C8F7-496B-A170-2EEAAD2E6CE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="3135" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
   <si>
     <t>Output</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Validation</t>
   </si>
   <si>
-    <t>Fill NA with -1</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -133,141 +130,6 @@
     <t>mapped to position groups</t>
   </si>
   <si>
-    <t>defense.ast.tackles</t>
-  </si>
-  <si>
-    <t>defense.fum.forced</t>
-  </si>
-  <si>
-    <t>defense.fum.rec</t>
-  </si>
-  <si>
-    <t>defense.fum.tds</t>
-  </si>
-  <si>
-    <t>defense.fum.yds</t>
-  </si>
-  <si>
-    <t>defense.games</t>
-  </si>
-  <si>
-    <t>defense.int</t>
-  </si>
-  <si>
-    <t>defense.int.td</t>
-  </si>
-  <si>
-    <t>defense.int.yards</t>
-  </si>
-  <si>
-    <t>defense.loss.tackles</t>
-  </si>
-  <si>
-    <t>defense.pd</t>
-  </si>
-  <si>
-    <t>defense.sacks</t>
-  </si>
-  <si>
-    <t>defense.seasons</t>
-  </si>
-  <si>
-    <t>defense.solo.tackes</t>
-  </si>
-  <si>
-    <t>defense.tackles</t>
-  </si>
-  <si>
-    <t>passing.attempts</t>
-  </si>
-  <si>
-    <t>passing.comp.pct</t>
-  </si>
-  <si>
-    <t>passing.completions</t>
-  </si>
-  <si>
-    <t>passing.games</t>
-  </si>
-  <si>
-    <t>passing.pass.ints</t>
-  </si>
-  <si>
-    <t>passing.pass.tds</t>
-  </si>
-  <si>
-    <t>passing.pass.yards</t>
-  </si>
-  <si>
-    <t>passing.seasons</t>
-  </si>
-  <si>
-    <t>rushing.games</t>
-  </si>
-  <si>
-    <t>rushing.rec.td</t>
-  </si>
-  <si>
-    <t>rushing.rec.yards</t>
-  </si>
-  <si>
-    <t>rushing.receptions</t>
-  </si>
-  <si>
-    <t>rushing.rush.att</t>
-  </si>
-  <si>
-    <t>rushing.rush.td</t>
-  </si>
-  <si>
-    <t>rushing.rush.yds</t>
-  </si>
-  <si>
-    <t>rushing.scrim.plays</t>
-  </si>
-  <si>
-    <t>rushing.scrim.tds</t>
-  </si>
-  <si>
-    <t>rushing.scrim.yds</t>
-  </si>
-  <si>
-    <t>rushing.seasons</t>
-  </si>
-  <si>
-    <t>receiving.games</t>
-  </si>
-  <si>
-    <t>receiving.rec.td</t>
-  </si>
-  <si>
-    <t>receiving.rec.yards</t>
-  </si>
-  <si>
-    <t>receiving.receptions</t>
-  </si>
-  <si>
-    <t>receiving.rush.att</t>
-  </si>
-  <si>
-    <t>receiving.rush.td</t>
-  </si>
-  <si>
-    <t>receiving.rush.yds</t>
-  </si>
-  <si>
-    <t>receiving.scrim.plays</t>
-  </si>
-  <si>
-    <t>receiving.scrim.tds</t>
-  </si>
-  <si>
-    <t>receiving.scrim.yds</t>
-  </si>
-  <si>
-    <t>receiving.seasons</t>
-  </si>
-  <si>
     <t>defense_ast_tackles</t>
   </si>
   <si>
@@ -407,6 +269,33 @@
   </si>
   <si>
     <t>generated</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>mapped to position</t>
+  </si>
+  <si>
+    <t>selection_number</t>
+  </si>
+  <si>
+    <t>position_rank</t>
+  </si>
+  <si>
+    <t>position_group_rank</t>
+  </si>
+  <si>
+    <t>section_rank</t>
+  </si>
+  <si>
+    <t>rank of position per year, generated</t>
+  </si>
+  <si>
+    <t>rank of position group, generated</t>
+  </si>
+  <si>
+    <t>rank of section, generated</t>
   </si>
 </sst>
 </file>
@@ -471,11 +360,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,10 +713,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9B43B9-97E8-47EF-87F3-053A64B6D74C}">
-  <dimension ref="B2:H39"/>
+  <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,14 +748,14 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -874,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -890,12 +780,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -907,12 +797,12 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -927,7 +817,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -936,12 +826,14 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -955,44 +847,46 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1002,10 +896,10 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1015,10 +909,10 @@
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1028,10 +922,10 @@
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1041,18 +935,31 @@
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1061,10 +968,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F06EFB6-2247-47E4-B13B-EA152F4082C2}">
-  <dimension ref="B2:H53"/>
+  <dimension ref="B2:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H53"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,14 +996,14 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -1104,113 +1011,122 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1219,10 +1135,10 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1231,10 +1147,10 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1243,10 +1159,10 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1255,10 +1171,10 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1267,10 +1183,10 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1279,10 +1195,10 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1291,10 +1207,10 @@
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1303,10 +1219,10 @@
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1315,10 +1231,10 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1327,10 +1243,10 @@
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1339,10 +1255,10 @@
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1351,10 +1267,10 @@
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1363,10 +1279,10 @@
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1375,10 +1291,10 @@
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1387,10 +1303,10 @@
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1399,10 +1315,10 @@
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1411,10 +1327,10 @@
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1423,10 +1339,10 @@
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1435,10 +1351,10 @@
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1447,10 +1363,10 @@
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1459,10 +1375,10 @@
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1471,10 +1387,10 @@
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1483,10 +1399,10 @@
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1495,10 +1411,10 @@
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1507,10 +1423,10 @@
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1519,10 +1435,10 @@
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1531,10 +1447,10 @@
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1543,10 +1459,10 @@
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1555,10 +1471,10 @@
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1567,10 +1483,10 @@
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1579,10 +1495,10 @@
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1591,10 +1507,10 @@
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1603,10 +1519,10 @@
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1615,10 +1531,10 @@
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1627,10 +1543,10 @@
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1639,10 +1555,10 @@
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1651,10 +1567,10 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -1663,10 +1579,10 @@
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1675,10 +1591,10 @@
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -1687,10 +1603,10 @@
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -1699,34 +1615,72 @@
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B69C10D-223E-4151-AC7E-33F2F70C9F20}">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1744,76 +1698,82 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
@@ -1821,13 +1781,13 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
@@ -1836,47 +1796,96 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/datamart_build/stage_to_warehouse.xlsx
+++ b/documentation/datamart_build/stage_to_warehouse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B\Desktop\nfl_capstone\documentation\datamart_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89375646-C8F7-496B-A170-2EEAAD2E6CE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85791DC-1079-43E4-BF1F-070816458FB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="combine_stats" sheetId="3" r:id="rId3"/>
     <sheet name="college_stats" sheetId="4" r:id="rId4"/>
     <sheet name="draft_stats" sheetId="5" r:id="rId5"/>
+    <sheet name="college_players" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="93">
   <si>
     <t>Output</t>
   </si>
@@ -296,6 +297,24 @@
   </si>
   <si>
     <t>rank of section, generated</t>
+  </si>
+  <si>
+    <t>first_name, last_name</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>home_city</t>
+  </si>
+  <si>
+    <t>home_state</t>
+  </si>
+  <si>
+    <t>home_country</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1671,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B69C10D-223E-4151-AC7E-33F2F70C9F20}">
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,4 +1907,198 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A4C16F-B75E-41B6-9E56-0C163DBCF60F}">
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>